--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7.844042397785882E-05</v>
+        <v>9.611007164012482E-16</v>
       </c>
       <c r="E2">
-        <v>7.844042397785882E-05</v>
+        <v>9.611007164012482E-16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.951969991060503E-08</v>
+        <v>1.668103725087027E-09</v>
       </c>
       <c r="E3">
-        <v>7.951969991060503E-08</v>
+        <v>1.668103725087027E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9038835033420242</v>
+        <v>0.9019478918766364</v>
       </c>
       <c r="E4">
-        <v>0.9038835033420242</v>
+        <v>0.9019478918766364</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.432301838035042E-32</v>
+        <v>8.927797162911799E-30</v>
       </c>
       <c r="E5">
-        <v>2.432301838035042E-32</v>
+        <v>8.927797162911799E-30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.478207846662381E-35</v>
+        <v>3.979863960769505E-32</v>
       </c>
       <c r="E6">
-        <v>1.478207846662381E-35</v>
+        <v>3.979863960769505E-32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999704525</v>
+        <v>0.9999999999994784</v>
       </c>
       <c r="E7">
-        <v>2.954747557737392E-11</v>
+        <v>5.215827769688985E-13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999876</v>
       </c>
       <c r="E8">
-        <v>2.220446049250313E-16</v>
+        <v>1.243449787580175E-14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007333592202088591</v>
+        <v>0.4974537331742029</v>
       </c>
       <c r="E10">
-        <v>0.9926664077979114</v>
+        <v>0.5025462668257972</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.5434230161978296</v>
+        <v>0.9173177702926415</v>
       </c>
       <c r="E11">
-        <v>0.4565769838021704</v>
+        <v>0.0826822297073585</v>
       </c>
       <c r="F11">
-        <v>75.67378234863281</v>
+        <v>87.40620422363281</v>
       </c>
       <c r="G11">
         <v>0.7</v>
